--- a/HSY_OPT_ST_SRS_001.xlsx
+++ b/HSY_OPT_ST_SRS_001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Y2019\option\bumbyrepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Y2019\OptTrade\bumbyrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D048B6-30D6-49CB-AF64-CE88F0AFFA54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E30CE1-FA24-4388-8EED-C5279056992B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SR No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t xml:space="preserve">호가 갱신 상황이 GUI와 저장루틴에 공지되어야 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-D6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신규호가 발생 내용을 sqlite에 저장한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +416,7 @@
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -461,6 +469,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>

--- a/HSY_OPT_ST_SRS_001.xlsx
+++ b/HSY_OPT_ST_SRS_001.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Y2019\OptTrade\bumbyrepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E30CE1-FA24-4388-8EED-C5279056992B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B75199-002E-4E86-B192-BD751DC22774}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>SR No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F-A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Real TC를 사용하여 신규 호가가 발생할 때 옵션 코드, 매도호가, 매수호가를 호가 테이블에 갱신해야 한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +84,90 @@
   </si>
   <si>
     <t xml:space="preserve">신규호가 발생 내용을 sqlite에 저장한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF-U2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sqlite에 저장된 데이터를 시간별 optchart로 구현하도록 한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">optcode에서 행사가격을 추출해 낸다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능한 위해상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>severity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">F-D8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">80%확률로 이득을 취할 수 있는 강세 스프레드 옵션과 약세 스프레드 옵션을 스캔한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI,accessDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observer,subject,accessDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PyOptHogaMon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dbanal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-D8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F-D7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">체결이 발생할 때마다 분석시 Kospi200지수 이론가, 내재변동성 정보를 확보한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,8 +211,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -413,81 +496,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="44.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
